--- a/SelectionCommittee.WEB/Content/Statements/Разработка программного обеспечения.xlsx
+++ b/SelectionCommittee.WEB/Content/Statements/Разработка программного обеспечения.xlsx
@@ -1,37 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Visual Studio 2019\ASP.NET MVC\SelectionCommittee\SelectionCommittee.WEB\Content\Statements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{210BF236-B949-49E7-95AE-9610B74D421E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{5C4F1F0A-AEF6-4189-9022-91375D512014}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15825" windowHeight="10215"/>
   </bookViews>
   <sheets>
     <sheet name="Список абитуриентов" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>k1 - 0,2</t>
+  </si>
+  <si>
+    <t>k2 - 0,4</t>
+  </si>
+  <si>
+    <t>k3 - 0,3</t>
+  </si>
+  <si>
+    <t>k4 - 0,1</t>
+  </si>
   <si>
     <t>Бюджетное место</t>
   </si>
@@ -54,19 +59,31 @@
     <t>Математика или биология</t>
   </si>
   <si>
+    <t>СК</t>
+  </si>
+  <si>
+    <t>ОК</t>
+  </si>
+  <si>
     <t>Балл</t>
   </si>
   <si>
+    <t>Струнов Дмитрий Вячеславович</t>
+  </si>
+  <si>
     <t>Калиниченко Александр Александрович</t>
   </si>
   <si>
-    <t>Струнов Дмитрий Вячеславович</t>
+    <t>СК - сельской коэффициент</t>
+  </si>
+  <si>
+    <t>ОК - отраслевой коэффициент</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,13 +143,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -169,7 +190,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -181,7 +202,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -228,23 +249,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -280,23 +284,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -448,8 +435,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57589415-DE15-423E-9757-182DCCEB1965}">
-  <dimension ref="B2:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,123 +444,134 @@
   <cols>
     <col min="2" max="2" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="2:8" ht="51" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="2:10" ht="51" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B4" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4">
+        <v>176</v>
+      </c>
+      <c r="E4" s="4">
+        <v>170</v>
+      </c>
+      <c r="F4" s="4">
+        <v>180</v>
+      </c>
+      <c r="G4" s="4">
+        <v>200</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="J4" s="5">
+        <v>187.27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="3">
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4">
+        <v>180</v>
+      </c>
+      <c r="E5" s="4">
+        <v>176</v>
+      </c>
+      <c r="F5" s="4">
+        <v>168</v>
+      </c>
+      <c r="G5" s="4">
+        <v>190</v>
+      </c>
+      <c r="H5" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3">
-        <v>180</v>
-      </c>
-      <c r="E4" s="3">
-        <v>176</v>
-      </c>
-      <c r="F4" s="3">
-        <v>168</v>
-      </c>
-      <c r="G4" s="3">
-        <v>190</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="I5" s="5">
+        <v>1.02</v>
+      </c>
+      <c r="J5" s="5">
         <v>180.95</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3">
-        <v>176</v>
-      </c>
-      <c r="E5" s="3">
-        <v>170</v>
-      </c>
-      <c r="F5" s="3">
-        <v>180</v>
-      </c>
-      <c r="G5" s="3">
-        <v>200</v>
-      </c>
-      <c r="H5" s="3">
-        <v>187.27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
